--- a/Plot_tool/xlsx/TPHLCT3_32x32.xlsx
+++ b/Plot_tool/xlsx/TPHLCT3_32x32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A717006F-8667-44C6-8808-AB494E390F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC900C9-F83C-445E-BD56-CFCB5CF57F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="7"/>
+    <workbookView xWindow="12570" yWindow="555" windowWidth="14505" windowHeight="11835" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Milkdrop" sheetId="7" r:id="rId7"/>
     <sheet name="Sailboat" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -56,13 +56,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.000"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,6 +169,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Var(--jp-code-font-family)"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -301,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,25 +329,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Accent" xfId="1"/>
-    <cellStyle name="Accent 1" xfId="2"/>
-    <cellStyle name="Accent 2" xfId="3"/>
-    <cellStyle name="Accent 3" xfId="4"/>
-    <cellStyle name="Bad" xfId="5"/>
-    <cellStyle name="Error" xfId="6"/>
-    <cellStyle name="Footnote" xfId="7"/>
-    <cellStyle name="Good" xfId="8"/>
-    <cellStyle name="Heading (user)" xfId="9"/>
-    <cellStyle name="Heading 1" xfId="10"/>
-    <cellStyle name="Heading 2" xfId="11"/>
-    <cellStyle name="Hyperlink" xfId="12"/>
-    <cellStyle name="Neutral" xfId="13"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Status" xfId="15"/>
-    <cellStyle name="Text" xfId="16"/>
-    <cellStyle name="Warning" xfId="17"/>
+    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading (user)" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -653,14 +662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
@@ -670,7 +679,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -709,11 +718,11 @@
       <c r="D2" s="4">
         <v>0.77559725528397705</v>
       </c>
-      <c r="E2" s="1">
-        <v>18617.203125</v>
+      <c r="E2" s="7">
+        <v>57628.826171875</v>
       </c>
       <c r="F2" s="1">
-        <v>5220.8425292968705</v>
+        <v>7358.8837890625</v>
       </c>
       <c r="G2" s="6">
         <v>177680.01549236401</v>
@@ -722,7 +731,7 @@
         <v>1802920.7205000201</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -735,16 +744,16 @@
       <c r="D3" s="4">
         <v>0.80100905485988605</v>
       </c>
-      <c r="E3" s="1">
-        <v>17196.264160156199</v>
+      <c r="E3" s="7">
+        <v>50936.375</v>
       </c>
       <c r="F3" s="1">
-        <v>5200.42041015625</v>
+        <v>6713.6044921875</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -757,14 +766,14 @@
       <c r="D4" s="4">
         <v>0.81698587460121497</v>
       </c>
-      <c r="E4" s="1">
-        <v>16199.5244140625</v>
+      <c r="E4" s="7">
+        <v>45696.53125</v>
       </c>
       <c r="F4" s="1">
-        <v>5017.2951660156205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
+        <v>6511.349609375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -777,14 +786,14 @@
       <c r="D5" s="4">
         <v>0.83553119581580604</v>
       </c>
-      <c r="E5" s="1">
-        <v>15432.631347656201</v>
+      <c r="E5" s="7">
+        <v>42312.056640625</v>
       </c>
       <c r="F5" s="1">
-        <v>4749.4152832031205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
+        <v>5465.806640625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -797,14 +806,14 @@
       <c r="D6" s="4">
         <v>0.85014513191385699</v>
       </c>
-      <c r="E6" s="1">
-        <v>15069.689941406201</v>
+      <c r="E6" s="7">
+        <v>40450.392578125</v>
       </c>
       <c r="F6" s="1">
-        <v>4735.2946777343705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
+        <v>5311.216796875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -817,14 +826,14 @@
       <c r="D7" s="4">
         <v>0.86102317276664897</v>
       </c>
-      <c r="E7" s="1">
-        <v>14528.020996093701</v>
+      <c r="E7" s="7">
+        <v>37914.42578125</v>
       </c>
       <c r="F7" s="1">
-        <v>4578.130859375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
+        <v>5186.4130859375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -837,14 +846,14 @@
       <c r="D8" s="4">
         <v>0.87198685906195095</v>
       </c>
-      <c r="E8" s="1">
-        <v>14074.5458984375</v>
+      <c r="E8" s="7">
+        <v>36163.640625</v>
       </c>
       <c r="F8" s="1">
-        <v>4439.9553222656205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
+        <v>5011.5703125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -857,14 +866,14 @@
       <c r="D9" s="4">
         <v>0.88166639799047197</v>
       </c>
-      <c r="E9" s="1">
-        <v>13654.5927734375</v>
+      <c r="E9" s="7">
+        <v>34307.052734375</v>
       </c>
       <c r="F9" s="1">
-        <v>4430.9035644531205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
+        <v>4883.4306640625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -877,14 +886,14 @@
       <c r="D10" s="4">
         <v>0.88930846698091404</v>
       </c>
-      <c r="E10" s="1">
-        <v>13383.36328125</v>
+      <c r="E10" s="7">
+        <v>33148.162109375</v>
       </c>
       <c r="F10" s="1">
-        <v>4356.1379394531205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
+        <v>4869.765625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -897,14 +906,14 @@
       <c r="D11" s="4">
         <v>0.89706640380838798</v>
       </c>
-      <c r="E11" s="1">
-        <v>13341.6005859375</v>
+      <c r="E11" s="7">
+        <v>32550.529296875</v>
       </c>
       <c r="F11" s="1">
-        <v>4397.42138671875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
+        <v>4807.54296875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -917,14 +926,14 @@
       <c r="D12" s="4">
         <v>0.90396540471768105</v>
       </c>
-      <c r="E12" s="1">
-        <v>13139.75</v>
+      <c r="E12" s="7">
+        <v>31270.525390625</v>
       </c>
       <c r="F12" s="1">
-        <v>4423.43115234375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
+        <v>4727.224609375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -937,14 +946,14 @@
       <c r="D13" s="4">
         <v>0.90983800973784501</v>
       </c>
-      <c r="E13" s="1">
-        <v>12968.35546875</v>
+      <c r="E13" s="7">
+        <v>30571.88671875</v>
       </c>
       <c r="F13" s="1">
-        <v>4381.455078125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
+        <v>4524.2685546875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -957,17 +966,13 @@
       <c r="D14" s="4">
         <v>0.91549752326616396</v>
       </c>
-      <c r="E14" s="1">
-        <v>12894.551269531201</v>
+      <c r="E14" s="7">
+        <v>30093.77734375</v>
       </c>
       <c r="F14" s="1">
-        <v>4300.07080078125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
+        <v>4434.916015625</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -979,14 +984,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -995,7 +1000,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -1034,11 +1039,11 @@
       <c r="D2" s="4">
         <v>0.73648494534555997</v>
       </c>
-      <c r="E2" s="1">
-        <v>37643.8310546875</v>
+      <c r="E2" s="7">
+        <v>78505.484375</v>
       </c>
       <c r="F2" s="1">
-        <v>8254.3596191406195</v>
+        <v>8823.955078125</v>
       </c>
       <c r="G2" s="6">
         <v>204785.961035435</v>
@@ -1047,7 +1052,7 @@
         <v>2193214.0104785799</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1060,14 +1065,14 @@
       <c r="D3" s="4">
         <v>0.76624150773283395</v>
       </c>
-      <c r="E3" s="1">
-        <v>38018.307128906199</v>
+      <c r="E3" s="7">
+        <v>77971.251953125</v>
       </c>
       <c r="F3" s="1">
-        <v>8392.76708984375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
+        <v>8880.3525390625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -1080,14 +1085,14 @@
       <c r="D4" s="4">
         <v>0.79032035531811995</v>
       </c>
-      <c r="E4" s="1">
-        <v>37989.794433593699</v>
+      <c r="E4" s="7">
+        <v>77977.88671875</v>
       </c>
       <c r="F4" s="1">
-        <v>8075.2570800781205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
+        <v>8726.720703125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -1100,14 +1105,14 @@
       <c r="D5" s="4">
         <v>0.80947971014256004</v>
       </c>
-      <c r="E5" s="1">
-        <v>37478.345703125</v>
+      <c r="E5" s="7">
+        <v>76711.947265625</v>
       </c>
       <c r="F5" s="1">
-        <v>8226.3332519531195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
+        <v>8744.6630859375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -1120,14 +1125,14 @@
       <c r="D6" s="4">
         <v>0.82547908751337096</v>
       </c>
-      <c r="E6" s="1">
-        <v>37332.7939453125</v>
+      <c r="E6" s="7">
+        <v>76610.37109375</v>
       </c>
       <c r="F6" s="1">
-        <v>8322.662109375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
+        <v>9301.89453125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -1140,14 +1145,14 @@
       <c r="D7" s="4">
         <v>0.83869703127064499</v>
       </c>
-      <c r="E7" s="1">
-        <v>37677.297363281199</v>
+      <c r="E7" s="7">
+        <v>77882.548828125</v>
       </c>
       <c r="F7" s="1">
-        <v>8482.87451171875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
+        <v>9271.9140625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1160,14 +1165,14 @@
       <c r="D8" s="4">
         <v>0.85094969731908099</v>
       </c>
-      <c r="E8" s="1">
-        <v>38244.4326171875</v>
+      <c r="E8" s="7">
+        <v>78697.009765625</v>
       </c>
       <c r="F8" s="1">
-        <v>8402.5080566406195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
+        <v>9380.2041015625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1180,14 +1185,14 @@
       <c r="D9" s="4">
         <v>0.86163345610771602</v>
       </c>
-      <c r="E9" s="1">
-        <v>38449.654785156199</v>
+      <c r="E9" s="7">
+        <v>79144.498046875</v>
       </c>
       <c r="F9" s="1">
-        <v>8436.1672363281195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
+        <v>9364.83203125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -1200,14 +1205,14 @@
       <c r="D10" s="4">
         <v>0.87043223414032</v>
       </c>
-      <c r="E10" s="1">
-        <v>38225.278808593699</v>
+      <c r="E10" s="7">
+        <v>78991.908203125</v>
       </c>
       <c r="F10" s="1">
-        <v>8758.51220703125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
+        <v>9817.572265625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -1220,14 +1225,14 @@
       <c r="D11" s="4">
         <v>0.87922253600406897</v>
       </c>
-      <c r="E11" s="1">
-        <v>38860.5908203125</v>
+      <c r="E11" s="7">
+        <v>79558.779296875</v>
       </c>
       <c r="F11" s="1">
-        <v>8890.5124511718695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
+        <v>9951.33984375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -1240,14 +1245,14 @@
       <c r="D12" s="4">
         <v>0.88708159097705597</v>
       </c>
-      <c r="E12" s="1">
-        <v>38657.148925781199</v>
+      <c r="E12" s="7">
+        <v>79819.703125</v>
       </c>
       <c r="F12" s="1">
-        <v>8691.9016113281195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
+        <v>9515.126953125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -1260,14 +1265,14 @@
       <c r="D13" s="4">
         <v>0.89380422170130802</v>
       </c>
-      <c r="E13" s="1">
-        <v>38738.4091796875</v>
+      <c r="E13" s="7">
+        <v>79200.611328125</v>
       </c>
       <c r="F13" s="1">
-        <v>8731.78076171875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
+        <v>9631.7265625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -1280,17 +1285,13 @@
       <c r="D14" s="4">
         <v>0.90070354886019099</v>
       </c>
-      <c r="E14" s="1">
-        <v>38758.4619140625</v>
+      <c r="E14" s="7">
+        <v>78657.1953125</v>
       </c>
       <c r="F14" s="1">
-        <v>8573.3894042968695</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
+        <v>9481.8525390625</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -1302,14 +1303,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -1318,7 +1319,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -1357,11 +1358,11 @@
       <c r="D2" s="4">
         <v>0.73144872521849702</v>
       </c>
-      <c r="E2" s="1">
-        <v>19916.249511718699</v>
+      <c r="E2" s="7">
+        <v>58187.435546875</v>
       </c>
       <c r="F2" s="1">
-        <v>5037.7194824218705</v>
+        <v>7481.8779296875</v>
       </c>
       <c r="G2" s="6">
         <v>174086.82998154199</v>
@@ -1370,7 +1371,7 @@
         <v>1947734.02548269</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1383,14 +1384,14 @@
       <c r="D3" s="4">
         <v>0.75985044392286205</v>
       </c>
-      <c r="E3" s="1">
-        <v>19566.845703125</v>
+      <c r="E3" s="7">
+        <v>55178.775390625</v>
       </c>
       <c r="F3" s="1">
-        <v>5125.7185058593705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
+        <v>7342.9716796875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -1403,14 +1404,14 @@
       <c r="D4" s="4">
         <v>0.78365300057893605</v>
       </c>
-      <c r="E4" s="1">
-        <v>19292.987792968699</v>
+      <c r="E4" s="7">
+        <v>52025.537109375</v>
       </c>
       <c r="F4" s="1">
-        <v>4968.6672363281205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
+        <v>7003.4619140625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -1423,14 +1424,14 @@
       <c r="D5" s="4">
         <v>0.80140422243328402</v>
       </c>
-      <c r="E5" s="1">
-        <v>18885.169921875</v>
+      <c r="E5" s="7">
+        <v>49097.236328125</v>
       </c>
       <c r="F5" s="1">
-        <v>5160.5041503906205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
+        <v>7264.3056640625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -1443,14 +1444,14 @@
       <c r="D6" s="4">
         <v>0.81942211938114895</v>
       </c>
-      <c r="E6" s="1">
-        <v>18739.024902343699</v>
+      <c r="E6" s="7">
+        <v>46951.1875</v>
       </c>
       <c r="F6" s="1">
-        <v>5073.5344238281205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
+        <v>7170.6689453125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -1463,14 +1464,14 @@
       <c r="D7" s="4">
         <v>0.83442143564902704</v>
       </c>
-      <c r="E7" s="1">
-        <v>18439.818847656199</v>
+      <c r="E7" s="7">
+        <v>45442.978515625</v>
       </c>
       <c r="F7" s="1">
-        <v>4981.4099121093705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
+        <v>7161.7265625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1483,14 +1484,14 @@
       <c r="D8" s="4">
         <v>0.84701296404034898</v>
       </c>
-      <c r="E8" s="1">
-        <v>17909.150390625</v>
+      <c r="E8" s="7">
+        <v>43085.953125</v>
       </c>
       <c r="F8" s="1">
-        <v>4820.2307128906205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
+        <v>6833.9482421875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1503,14 +1504,14 @@
       <c r="D9" s="4">
         <v>0.85804469725450705</v>
       </c>
-      <c r="E9" s="1">
-        <v>17709.533203125</v>
+      <c r="E9" s="7">
+        <v>41593.529296875</v>
       </c>
       <c r="F9" s="1">
-        <v>4972.62841796875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
+        <v>6764.1669921875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -1523,14 +1524,14 @@
       <c r="D10" s="4">
         <v>0.86884791178041099</v>
       </c>
-      <c r="E10" s="1">
-        <v>17257.365722656199</v>
+      <c r="E10" s="7">
+        <v>39857.955078125</v>
       </c>
       <c r="F10" s="1">
-        <v>4752.6433105468705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
+        <v>6325.5556640625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -1543,14 +1544,14 @@
       <c r="D11" s="4">
         <v>0.87827826181050295</v>
       </c>
-      <c r="E11" s="1">
-        <v>16961.183105468699</v>
+      <c r="E11" s="7">
+        <v>38187.208984375</v>
       </c>
       <c r="F11" s="1">
-        <v>4736.7937011718705</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
+        <v>6304.2646484375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -1563,14 +1564,14 @@
       <c r="D12" s="4">
         <v>0.88631753747250597</v>
       </c>
-      <c r="E12" s="1">
-        <v>16657.7734375</v>
+      <c r="E12" s="7">
+        <v>37053.62109375</v>
       </c>
       <c r="F12" s="1">
-        <v>4680.76220703125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
+        <v>6362.306640625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -1583,14 +1584,14 @@
       <c r="D13" s="4">
         <v>0.89398596579259304</v>
       </c>
-      <c r="E13" s="1">
-        <v>16671.569824218699</v>
+      <c r="E13" s="7">
+        <v>36887.80078125</v>
       </c>
       <c r="F13" s="1">
-        <v>4672.40869140625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
+        <v>6091.0517578125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -1603,17 +1604,13 @@
       <c r="D14" s="4">
         <v>0.90092741638131102</v>
       </c>
-      <c r="E14" s="1">
-        <v>16441.7939453125</v>
+      <c r="E14" s="7">
+        <v>36228.201171875</v>
       </c>
       <c r="F14" s="1">
-        <v>4584.21044921875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
+        <v>5937.1669921875</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -1625,14 +1622,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -1641,7 +1638,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -1680,11 +1677,11 @@
       <c r="D2" s="4">
         <v>0.69790567706460505</v>
       </c>
-      <c r="E2" s="1">
-        <v>12664.732421875</v>
+      <c r="E2" s="7">
+        <v>36877.728515625</v>
       </c>
       <c r="F2" s="1">
-        <v>2765.91650390625</v>
+        <v>4345.162109375</v>
       </c>
       <c r="G2" s="6">
         <v>134925.597835725</v>
@@ -1693,7 +1690,7 @@
         <v>1971848.1525643901</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1706,14 +1703,14 @@
       <c r="D3" s="4">
         <v>0.72875941202754901</v>
       </c>
-      <c r="E3" s="1">
-        <v>12931.5126953125</v>
+      <c r="E3" s="7">
+        <v>35988.48828125</v>
       </c>
       <c r="F3" s="1">
-        <v>2819.44116210937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
+        <v>4722.4873046875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -1726,14 +1723,14 @@
       <c r="D4" s="4">
         <v>0.75220513166341996</v>
       </c>
-      <c r="E4" s="1">
-        <v>13133.9091796875</v>
+      <c r="E4" s="7">
+        <v>35463.009765625</v>
       </c>
       <c r="F4" s="1">
-        <v>2877.96606445312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
+        <v>4754.2177734375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -1746,14 +1743,14 @@
       <c r="D5" s="4">
         <v>0.77184741656143196</v>
       </c>
-      <c r="E5" s="1">
-        <v>12690.534667968701</v>
+      <c r="E5" s="7">
+        <v>33313.439453125</v>
       </c>
       <c r="F5" s="1">
-        <v>2861.47021484375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
+        <v>4794.65625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -1766,14 +1763,14 @@
       <c r="D6" s="4">
         <v>0.78909759665342405</v>
       </c>
-      <c r="E6" s="1">
-        <v>12594.931152343701</v>
+      <c r="E6" s="7">
+        <v>32037.19140625</v>
       </c>
       <c r="F6" s="1">
-        <v>2909.10083007812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
+        <v>4659.1640625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -1786,14 +1783,14 @@
       <c r="D7" s="4">
         <v>0.80444473243969805</v>
       </c>
-      <c r="E7" s="1">
-        <v>12551.481933593701</v>
+      <c r="E7" s="7">
+        <v>31590.482421875</v>
       </c>
       <c r="F7" s="1">
-        <v>3027.24951171875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
+        <v>4622.25390625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1806,14 +1803,14 @@
       <c r="D8" s="4">
         <v>0.81770391002310105</v>
       </c>
-      <c r="E8" s="1">
-        <v>12604.732910156201</v>
+      <c r="E8" s="7">
+        <v>31157.912109375</v>
       </c>
       <c r="F8" s="1">
-        <v>3025.66015625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
+        <v>4584.08203125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1826,14 +1823,14 @@
       <c r="D9" s="4">
         <v>0.82964953557227294</v>
       </c>
-      <c r="E9" s="1">
-        <v>12636.9111328125</v>
+      <c r="E9" s="7">
+        <v>30847.693359375</v>
       </c>
       <c r="F9" s="1">
-        <v>3144.35131835937</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
+        <v>4721.8583984375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -1846,14 +1843,14 @@
       <c r="D10" s="4">
         <v>0.84076447838438995</v>
       </c>
-      <c r="E10" s="1">
-        <v>12567.6767578125</v>
+      <c r="E10" s="7">
+        <v>30053.87890625</v>
       </c>
       <c r="F10" s="1">
-        <v>3062.07983398437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
+        <v>4468.1318359375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -1866,14 +1863,14 @@
       <c r="D11" s="4">
         <v>0.85032269534692895</v>
       </c>
-      <c r="E11" s="1">
-        <v>12555.627441406201</v>
+      <c r="E11" s="7">
+        <v>29441.80078125</v>
       </c>
       <c r="F11" s="1">
-        <v>2956.35791015625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
+        <v>4384.826171875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -1886,14 +1883,14 @@
       <c r="D12" s="4">
         <v>0.85895784615877302</v>
       </c>
-      <c r="E12" s="1">
-        <v>12497.3720703125</v>
+      <c r="E12" s="7">
+        <v>28623.314453125</v>
       </c>
       <c r="F12" s="1">
-        <v>2916.423828125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
+        <v>4190.322265625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -1906,14 +1903,14 @@
       <c r="D13" s="4">
         <v>0.86751346237228499</v>
       </c>
-      <c r="E13" s="1">
-        <v>12501.779296875</v>
+      <c r="E13" s="7">
+        <v>28393.6875</v>
       </c>
       <c r="F13" s="1">
-        <v>2925.3544921875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
+        <v>4264.0673828125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -1926,17 +1923,13 @@
       <c r="D14" s="4">
         <v>0.87503732918277899</v>
       </c>
-      <c r="E14" s="1">
-        <v>12557.6962890625</v>
+      <c r="E14" s="7">
+        <v>28188.82421875</v>
       </c>
       <c r="F14" s="1">
-        <v>2833.12890625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
+        <v>4170.0595703125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -1948,14 +1941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -1964,7 +1957,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +1983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -2003,11 +1996,11 @@
       <c r="D2" s="4">
         <v>0.79060586748685402</v>
       </c>
-      <c r="E2" s="1">
-        <v>13698.11328125</v>
+      <c r="E2" s="7">
+        <v>40985.095703125</v>
       </c>
       <c r="F2" s="1">
-        <v>3578.95654296875</v>
+        <v>5877.986328125</v>
       </c>
       <c r="G2" s="6">
         <v>172751.75137192401</v>
@@ -2016,7 +2009,7 @@
         <v>1588562.6253952</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -2029,14 +2022,14 @@
       <c r="D3" s="4">
         <v>0.81234596265000503</v>
       </c>
-      <c r="E3" s="1">
-        <v>12818.4384765625</v>
+      <c r="E3" s="7">
+        <v>36814.30078125</v>
       </c>
       <c r="F3" s="1">
-        <v>3343.67016601562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
+        <v>5280.134765625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -2049,14 +2042,14 @@
       <c r="D4" s="4">
         <v>0.83105783394757105</v>
       </c>
-      <c r="E4" s="1">
-        <v>12380.244628906201</v>
+      <c r="E4" s="7">
+        <v>33918.36328125</v>
       </c>
       <c r="F4" s="1">
-        <v>3172.63745117187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
+        <v>5310.302734375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -2069,14 +2062,14 @@
       <c r="D5" s="4">
         <v>0.84597037816203202</v>
       </c>
-      <c r="E5" s="1">
-        <v>11510.218261718701</v>
+      <c r="E5" s="7">
+        <v>30023.009765625</v>
       </c>
       <c r="F5" s="1">
-        <v>3135.64624023437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
+        <v>5207.6201171875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -2089,14 +2082,14 @@
       <c r="D6" s="4">
         <v>0.85784927332350702</v>
       </c>
-      <c r="E6" s="1">
-        <v>11226.62109375</v>
+      <c r="E6" s="7">
+        <v>28352.693359375</v>
       </c>
       <c r="F6" s="1">
-        <v>3144.150390625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
+        <v>4859.1337890625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -2109,14 +2102,14 @@
       <c r="D7" s="4">
         <v>0.869213988021175</v>
       </c>
-      <c r="E7" s="1">
-        <v>10975.2587890625</v>
+      <c r="E7" s="7">
+        <v>27164.568359375</v>
       </c>
       <c r="F7" s="1">
-        <v>3058.66748046875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
+        <v>4663.796875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -2129,14 +2122,14 @@
       <c r="D8" s="4">
         <v>0.87863427204228495</v>
       </c>
-      <c r="E8" s="1">
-        <v>10674.992675781201</v>
+      <c r="E8" s="7">
+        <v>25893.966796875</v>
       </c>
       <c r="F8" s="1">
-        <v>2898.0908203125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
+        <v>4551.1611328125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2149,14 +2142,14 @@
       <c r="D9" s="4">
         <v>0.88679808673660698</v>
       </c>
-      <c r="E9" s="1">
-        <v>10279.237792968701</v>
+      <c r="E9" s="7">
+        <v>24201.216796875</v>
       </c>
       <c r="F9" s="1">
-        <v>2898.51879882812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
+        <v>4280.6806640625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -2169,14 +2162,14 @@
       <c r="D10" s="4">
         <v>0.89429340314306804</v>
       </c>
-      <c r="E10" s="1">
-        <v>10268.41796875</v>
+      <c r="E10" s="7">
+        <v>23830.2109375</v>
       </c>
       <c r="F10" s="1">
-        <v>2846.02783203125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
+        <v>4171.61328125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -2189,14 +2182,14 @@
       <c r="D11" s="4">
         <v>0.90011862208105597</v>
       </c>
-      <c r="E11" s="1">
-        <v>10074.3681640625</v>
+      <c r="E11" s="7">
+        <v>23036.12890625</v>
       </c>
       <c r="F11" s="1">
-        <v>2750.24755859375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
+        <v>3856.4765625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -2209,14 +2202,14 @@
       <c r="D12" s="4">
         <v>0.90555643303024502</v>
       </c>
-      <c r="E12" s="1">
-        <v>9997.267578125</v>
+      <c r="E12" s="7">
+        <v>22587.1015625</v>
       </c>
       <c r="F12" s="1">
-        <v>2767.64721679687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
+        <v>3952.7021484375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -2229,14 +2222,14 @@
       <c r="D13" s="4">
         <v>0.910425519649395</v>
       </c>
-      <c r="E13" s="1">
-        <v>9959.48828125</v>
+      <c r="E13" s="7">
+        <v>22128.751953125</v>
       </c>
       <c r="F13" s="1">
-        <v>2787.64086914062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
+        <v>3899.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -2249,17 +2242,13 @@
       <c r="D14" s="4">
         <v>0.91498066143227996</v>
       </c>
-      <c r="E14" s="1">
-        <v>9868.130859375</v>
+      <c r="E14" s="7">
+        <v>21659.759765625</v>
       </c>
       <c r="F14" s="1">
-        <v>2719.79833984375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
+        <v>3969.3046875</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -2271,14 +2260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -2287,7 +2276,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2313,7 +2302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -2326,11 +2315,11 @@
       <c r="D2" s="4">
         <v>0.53375558359002395</v>
       </c>
-      <c r="E2" s="1">
-        <v>56139.590332031199</v>
+      <c r="E2" s="7">
+        <v>163728.130859375</v>
       </c>
       <c r="F2" s="1">
-        <v>10788.973144531201</v>
+        <v>16944.05078125</v>
       </c>
       <c r="G2" s="6">
         <v>126997.145756504</v>
@@ -2339,7 +2328,7 @@
         <v>4041267.1892753402</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -2352,14 +2341,14 @@
       <c r="D3" s="4">
         <v>0.57055994477780503</v>
       </c>
-      <c r="E3" s="1">
-        <v>59556.2470703125</v>
+      <c r="E3" s="7">
+        <v>168252.80078125</v>
       </c>
       <c r="F3" s="1">
-        <v>11293.7946777343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
+        <v>15939.373046875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -2372,14 +2361,14 @@
       <c r="D4" s="4">
         <v>0.602086791157048</v>
       </c>
-      <c r="E4" s="1">
-        <v>61400.3798828125</v>
+      <c r="E4" s="7">
+        <v>168907.884765625</v>
       </c>
       <c r="F4" s="1">
-        <v>11788.798339843701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
+        <v>14771.9140625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -2392,14 +2381,14 @@
       <c r="D5" s="4">
         <v>0.629301262789564</v>
       </c>
-      <c r="E5" s="1">
-        <v>62887.7998046875</v>
+      <c r="E5" s="7">
+        <v>168527.248046875</v>
       </c>
       <c r="F5" s="1">
-        <v>11878.619140625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
+        <v>14184.5654296875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -2412,14 +2401,14 @@
       <c r="D6" s="4">
         <v>0.65271979673818004</v>
       </c>
-      <c r="E6" s="1">
-        <v>63192.342285156199</v>
+      <c r="E6" s="7">
+        <v>163713.76171875</v>
       </c>
       <c r="F6" s="1">
-        <v>12019.258300781201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
+        <v>14585.314453125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -2432,14 +2421,14 @@
       <c r="D7" s="4">
         <v>0.67393036188186495</v>
       </c>
-      <c r="E7" s="1">
-        <v>64834.009765625</v>
+      <c r="E7" s="7">
+        <v>165564.35546875</v>
       </c>
       <c r="F7" s="1">
-        <v>11871.7287597656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
+        <v>13457.2138671875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -2452,14 +2441,14 @@
       <c r="D8" s="4">
         <v>0.69418811707718497</v>
       </c>
-      <c r="E8" s="1">
-        <v>64487.515136718699</v>
+      <c r="E8" s="7">
+        <v>161676.833984375</v>
       </c>
       <c r="F8" s="1">
-        <v>11685.681152343701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
+        <v>13052.5712890625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2472,14 +2461,14 @@
       <c r="D9" s="4">
         <v>0.71037811287155905</v>
       </c>
-      <c r="E9" s="1">
-        <v>64872.432128906199</v>
+      <c r="E9" s="7">
+        <v>158401.65234375</v>
       </c>
       <c r="F9" s="1">
-        <v>11757.433105468701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
+        <v>13205.94140625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -2492,14 +2481,14 @@
       <c r="D10" s="4">
         <v>0.72580548473906203</v>
       </c>
-      <c r="E10" s="1">
-        <v>65553.011230468706</v>
+      <c r="E10" s="7">
+        <v>156423.9609375</v>
       </c>
       <c r="F10" s="1">
-        <v>11684.2687988281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
+        <v>12862.7490234375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -2512,14 +2501,14 @@
       <c r="D11" s="4">
         <v>0.739975124814514</v>
       </c>
-      <c r="E11" s="1">
-        <v>66268.009277343706</v>
+      <c r="E11" s="7">
+        <v>155316.76171875</v>
       </c>
       <c r="F11" s="1">
-        <v>11559.3708496093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
+        <v>12832.09375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -2532,14 +2521,14 @@
       <c r="D12" s="4">
         <v>0.75323149133471501</v>
       </c>
-      <c r="E12" s="1">
-        <v>65740.250488281206</v>
+      <c r="E12" s="7">
+        <v>151508.20703125</v>
       </c>
       <c r="F12" s="1">
-        <v>11527.2978515625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
+        <v>12700.236328125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -2552,14 +2541,14 @@
       <c r="D13" s="4">
         <v>0.76532673028901899</v>
       </c>
-      <c r="E13" s="1">
-        <v>65965.331542968706</v>
+      <c r="E13" s="7">
+        <v>149758.126953125</v>
       </c>
       <c r="F13" s="1">
-        <v>11419.8229980468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
+        <v>11723.4521484375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -2572,17 +2561,13 @@
       <c r="D14" s="4">
         <v>0.77700085434467403</v>
       </c>
-      <c r="E14" s="1">
-        <v>66338.466796875</v>
+      <c r="E14" s="7">
+        <v>149183.3515625</v>
       </c>
       <c r="F14" s="1">
-        <v>11064.1259765625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
+        <v>11212.8427734375</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -2594,14 +2579,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -2610,7 +2595,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2636,7 +2621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -2649,11 +2634,11 @@
       <c r="D2" s="4">
         <v>0.83020449476484903</v>
       </c>
-      <c r="E2" s="1">
-        <v>6179.9873046875</v>
+      <c r="E2" s="7">
+        <v>10328.869140625</v>
       </c>
       <c r="F2" s="1">
-        <v>1886.78515625</v>
+        <v>3227.525390625</v>
       </c>
       <c r="G2" s="6">
         <v>135132.70337031799</v>
@@ -2662,7 +2647,7 @@
         <v>1111405.60682608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -2675,14 +2660,14 @@
       <c r="D3" s="4">
         <v>0.84886756144797304</v>
       </c>
-      <c r="E3" s="1">
-        <v>5855.92138671875</v>
+      <c r="E3" s="7">
+        <v>9276.15234375</v>
       </c>
       <c r="F3" s="1">
-        <v>1883.2177734375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
+        <v>3118.755859375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -2695,14 +2680,14 @@
       <c r="D4" s="4">
         <v>0.86342082159240596</v>
       </c>
-      <c r="E4" s="1">
-        <v>5664.5703125</v>
+      <c r="E4" s="7">
+        <v>8257.5703125</v>
       </c>
       <c r="F4" s="1">
-        <v>1912.56420898437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
+        <v>3262.958984375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -2715,14 +2700,14 @@
       <c r="D5" s="4">
         <v>0.87452079330259203</v>
       </c>
-      <c r="E5" s="1">
-        <v>5735.134765625</v>
+      <c r="E5" s="7">
+        <v>7943.361328125</v>
       </c>
       <c r="F5" s="1">
-        <v>1941.29150390625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
+        <v>3210.4072265625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -2735,14 +2720,14 @@
       <c r="D6" s="4">
         <v>0.88340587194643005</v>
       </c>
-      <c r="E6" s="1">
-        <v>5661.0927734375</v>
+      <c r="E6" s="7">
+        <v>7767.544921875</v>
       </c>
       <c r="F6" s="1">
-        <v>1889.73559570312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
+        <v>3227.35546875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -2755,14 +2740,14 @@
       <c r="D7" s="4">
         <v>0.89173724374544205</v>
       </c>
-      <c r="E7" s="1">
-        <v>5627.6552734375</v>
+      <c r="E7" s="7">
+        <v>7549.1015625</v>
       </c>
       <c r="F7" s="1">
-        <v>1904.97216796875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
+        <v>3071.42578125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -2775,14 +2760,14 @@
       <c r="D8" s="4">
         <v>0.89902874720811099</v>
       </c>
-      <c r="E8" s="1">
-        <v>5725.94384765625</v>
+      <c r="E8" s="7">
+        <v>7517.30078125</v>
       </c>
       <c r="F8" s="1">
-        <v>1898.69848632812</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
+        <v>3016.4677734375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2795,14 +2780,14 @@
       <c r="D9" s="4">
         <v>0.90486117716679604</v>
       </c>
-      <c r="E9" s="1">
-        <v>5730.42919921875</v>
+      <c r="E9" s="7">
+        <v>7515.5703125</v>
       </c>
       <c r="F9" s="1">
-        <v>1920.06713867187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
+        <v>3018.40625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -2815,14 +2800,14 @@
       <c r="D10" s="4">
         <v>0.91145105195589105</v>
       </c>
-      <c r="E10" s="1">
-        <v>5710.28955078125</v>
+      <c r="E10" s="7">
+        <v>7398.529296875</v>
       </c>
       <c r="F10" s="1">
-        <v>1901.74243164062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
+        <v>2950.2001953125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -2835,14 +2820,14 @@
       <c r="D11" s="4">
         <v>0.91621596127697802</v>
       </c>
-      <c r="E11" s="1">
-        <v>5739.0751953125</v>
+      <c r="E11" s="7">
+        <v>7399.759765625</v>
       </c>
       <c r="F11" s="1">
-        <v>1901.5966796875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
+        <v>3075.66796875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -2855,14 +2840,14 @@
       <c r="D12" s="4">
         <v>0.92141070405827397</v>
       </c>
-      <c r="E12" s="1">
-        <v>5758.05126953125</v>
+      <c r="E12" s="7">
+        <v>7362.626953125</v>
       </c>
       <c r="F12" s="1">
-        <v>1906.66162109375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
+        <v>2925.0712890625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -2875,14 +2860,14 @@
       <c r="D13" s="4">
         <v>0.92539119280056503</v>
       </c>
-      <c r="E13" s="1">
-        <v>5768.8076171875</v>
+      <c r="E13" s="7">
+        <v>7302.505859375</v>
       </c>
       <c r="F13" s="1">
-        <v>1912.72412109375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
+        <v>2944.0419921875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -2895,17 +2880,13 @@
       <c r="D14" s="4">
         <v>0.92888938208085103</v>
       </c>
-      <c r="E14" s="1">
-        <v>5800.84326171875</v>
+      <c r="E14" s="7">
+        <v>7325.56640625</v>
       </c>
       <c r="F14" s="1">
-        <v>1921.8232421875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
+        <v>3014.322265625</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -2917,14 +2898,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -2933,7 +2914,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2959,7 +2940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -2972,11 +2953,11 @@
       <c r="D2" s="4">
         <v>0.64014388286178503</v>
       </c>
-      <c r="E2" s="1">
-        <v>28020.386230468699</v>
+      <c r="E2" s="7">
+        <v>80500.189453125</v>
       </c>
       <c r="F2" s="1">
-        <v>7468.2705078125</v>
+        <v>10664.6103515625</v>
       </c>
       <c r="G2" s="6">
         <v>227400.32295764401</v>
@@ -2985,7 +2966,7 @@
         <v>2671849.6908011702</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -2998,14 +2979,14 @@
       <c r="D3" s="4">
         <v>0.66675125678140301</v>
       </c>
-      <c r="E3" s="1">
-        <v>26440.495605468699</v>
+      <c r="E3" s="7">
+        <v>71502.322265625</v>
       </c>
       <c r="F3" s="1">
-        <v>7283.73486328125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
+        <v>10174.7568359375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -3018,14 +2999,14 @@
       <c r="D4" s="4">
         <v>0.69229221676673203</v>
       </c>
-      <c r="E4" s="1">
-        <v>25533.157714843699</v>
+      <c r="E4" s="7">
+        <v>65768.330078125</v>
       </c>
       <c r="F4" s="1">
-        <v>7076.7531738281205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
+        <v>10086.4111328125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -3038,14 +3019,14 @@
       <c r="D5" s="4">
         <v>0.71629240159787999</v>
       </c>
-      <c r="E5" s="1">
-        <v>24877.673339843699</v>
+      <c r="E5" s="7">
+        <v>60923.41015625</v>
       </c>
       <c r="F5" s="1">
-        <v>6873.5703125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
+        <v>9767.4638671875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -3058,14 +3039,14 @@
       <c r="D6" s="4">
         <v>0.73500396234822196</v>
       </c>
-      <c r="E6" s="1">
-        <v>24435.343261718699</v>
+      <c r="E6" s="7">
+        <v>57815.583984375</v>
       </c>
       <c r="F6" s="1">
-        <v>7062.65283203125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
+        <v>10071.1171875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -3078,14 +3059,14 @@
       <c r="D7" s="4">
         <v>0.75228568439444798</v>
       </c>
-      <c r="E7" s="1">
-        <v>24192.5546875</v>
+      <c r="E7" s="7">
+        <v>55763.67578125</v>
       </c>
       <c r="F7" s="1">
-        <v>7144.57421875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
+        <v>9870.4638671875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -3098,14 +3079,14 @@
       <c r="D8" s="4">
         <v>0.76751027966249696</v>
       </c>
-      <c r="E8" s="1">
-        <v>23593.67578125</v>
+      <c r="E8" s="7">
+        <v>52857.583984375</v>
       </c>
       <c r="F8" s="1">
-        <v>6928.11181640625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
+        <v>9649.734375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -3118,14 +3099,14 @@
       <c r="D9" s="4">
         <v>0.78139624399909902</v>
       </c>
-      <c r="E9" s="1">
-        <v>23370.043457031199</v>
+      <c r="E9" s="7">
+        <v>50418.265625</v>
       </c>
       <c r="F9" s="1">
-        <v>6763.0344238281205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
+        <v>8977.55859375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -3138,14 +3119,14 @@
       <c r="D10" s="4">
         <v>0.79418618079093894</v>
       </c>
-      <c r="E10" s="1">
-        <v>23143.41796875</v>
+      <c r="E10" s="7">
+        <v>48489.978515625</v>
       </c>
       <c r="F10" s="1">
-        <v>6899.83203125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
+        <v>9093.3740234375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -3158,14 +3139,14 @@
       <c r="D11" s="4">
         <v>0.80455746131988304</v>
       </c>
-      <c r="E11" s="1">
-        <v>23012.387207031199</v>
+      <c r="E11" s="7">
+        <v>47274.009765625</v>
       </c>
       <c r="F11" s="1">
-        <v>6823.48193359375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
+        <v>9141.0068359375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -3178,14 +3159,14 @@
       <c r="D12" s="4">
         <v>0.81625161920987299</v>
       </c>
-      <c r="E12" s="1">
-        <v>23094.26171875</v>
+      <c r="E12" s="7">
+        <v>46492.212890625</v>
       </c>
       <c r="F12" s="1">
-        <v>6787.9758300781205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
+        <v>9216.1123046875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -3198,14 +3179,14 @@
       <c r="D13" s="4">
         <v>0.82573817823820195</v>
       </c>
-      <c r="E13" s="1">
-        <v>23113.294433593699</v>
+      <c r="E13" s="7">
+        <v>45301.123046875</v>
       </c>
       <c r="F13" s="1">
-        <v>6784.07666015625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
+        <v>8900.2841796875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -3218,20 +3199,17 @@
       <c r="D14" s="4">
         <v>0.83363369341904403</v>
       </c>
-      <c r="E14" s="1">
-        <v>23181.303222656199</v>
+      <c r="E14" s="7">
+        <v>44620.14453125</v>
       </c>
       <c r="F14" s="1">
-        <v>6716.9812011718705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
+        <v>8835.6298828125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;Cページ &amp;P</oddFooter>

--- a/Plot_tool/xlsx/TPHLCT3_32x32.xlsx
+++ b/Plot_tool/xlsx/TPHLCT3_32x32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC900C9-F83C-445E-BD56-CFCB5CF57F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546CB05C-0EC6-43E7-BDA6-11A50528DFD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="555" windowWidth="14505" windowHeight="11835" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="Mandrill" sheetId="6" r:id="rId6"/>
     <sheet name="Milkdrop" sheetId="7" r:id="rId7"/>
     <sheet name="Sailboat" sheetId="8" r:id="rId8"/>
+    <sheet name="TEST02" sheetId="10" r:id="rId9"/>
+    <sheet name="TEST19" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
   <si>
     <t>bpp</t>
   </si>
@@ -983,6 +985,322 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0E6C8E-201F-4009-90F8-6AFF3453E4B6}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>19.62890625</v>
+      </c>
+      <c r="C2" s="3">
+        <v>41.211345084275898</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.95086667329375596</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2307.3057861328102</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1791.4960327148401</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="7">
+        <v>16.30859375</v>
+      </c>
+      <c r="C3" s="3">
+        <v>41.719567984524303</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.95388789768849203</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2309.78857421875</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1798.234375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>13.96484375</v>
+      </c>
+      <c r="C4" s="3">
+        <v>42.1823968678546</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.95662403451539002</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2333.7119140625</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1798.6195678710901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="7">
+        <v>12.40234375</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42.564782154870898</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.95889851283496697</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2362.4212646484302</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1798.6040649414001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>11.23046875</v>
+      </c>
+      <c r="C6" s="3">
+        <v>42.908330085736601</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.960793884369743</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2375.8665771484302</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1810.01818847656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10.05859375</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43.3087539353361</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.96304845768477199</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2369.08740234375</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1803.67565917968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>9.27734375</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43.621317303848897</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.96484903878122097</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2371.64990234375</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1801.5969848632801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8.69140625</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43.886923811326398</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.96612074076725196</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2372.33715820312</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1800.37536621093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="7">
+        <v>8.10546875</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44.177699450996002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.96768224231786204</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2366.9576416015602</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1799.6672973632801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="7">
+        <v>7.51953125</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44.503481949860699</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.96930879510806101</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2355.6802978515602</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1787.97644042968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="7">
+        <v>7.12890625</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44.738348353888902</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.97036698671199195</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2346.66064453125</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1789.3784790039001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="7">
+        <v>6.73828125</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44.998643081777097</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.97160115171697303</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2335.2130126953102</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1782.88293457031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="7">
+        <v>6.34765625</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45.278058090049797</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.97277862626539402</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2322.7601318359302</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1780.2924194335901</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
@@ -2901,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3215,4 +3533,320 @@
     <oddFooter>&amp;Cページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9796473-3B7C-4EC8-9BE0-6DB8B79D14C5}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>12.59765625</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44.672062786444798</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.97458250181344597</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1450.17199707031</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1226.20654296875</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="7">
+        <v>10.25390625</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45.130421009201903</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.97597572959980805</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1454.76953125</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1216.4094848632801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>8.88671875</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45.475859984505497</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.977130649902471</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1481.47583007812</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1220.24609375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="7">
+        <v>7.91015625</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45.780269030091297</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.97820350681387302</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1498.55725097656</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1227.5809936523401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>7.12890625</v>
+      </c>
+      <c r="C6" s="3">
+        <v>46.078648045135303</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.97928148039298102</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1524.57849121093</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1228.4169311523401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6.54296875</v>
+      </c>
+      <c r="C7" s="3">
+        <v>46.3468577802768</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.98025413151904905</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1549.01977539062</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1228.3108520507801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>6.15234375</v>
+      </c>
+      <c r="C8" s="3">
+        <v>46.549193054384503</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.980980585583064</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1563.521484375</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1230.44616699218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5.56640625</v>
+      </c>
+      <c r="C9" s="3">
+        <v>46.905792484414299</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.98224239875907604</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1583.75061035156</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1228.45959472656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="7">
+        <v>5.37109375</v>
+      </c>
+      <c r="C10" s="3">
+        <v>47.038665225880898</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.98270589025140598</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1585.4970703125</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1228.75122070312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4.98046875</v>
+      </c>
+      <c r="C11" s="3">
+        <v>47.334420194203901</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.98369803748187901</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1595.5458984375</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1229.50085449218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4.78515625</v>
+      </c>
+      <c r="C12" s="3">
+        <v>47.499072003172202</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.98423245606667797</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1600.35290527343</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1227.89807128906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4.39453125</v>
+      </c>
+      <c r="C13" s="3">
+        <v>47.863218666674001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.98537276144306796</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1608.82482910156</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1230.8735961914001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4.19921875</v>
+      </c>
+      <c r="C14" s="3">
+        <v>48.0680150914976</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.98598399026617201</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1610.27819824218</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1229.4149780273401</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Plot_tool/xlsx/TPHLCT3_32x32.xlsx
+++ b/Plot_tool/xlsx/TPHLCT3_32x32.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="Sailboat" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="TEST02" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="TEST19" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="N8RGB" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="8">
   <si>
     <t xml:space="preserve">bpp</t>
   </si>
@@ -72,6 +73,7 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -509,13 +511,13 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -835,12 +837,12 @@
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -1130,6 +1132,325 @@
       </c>
       <c r="F14" s="1" t="n">
         <v>1780.29241943359</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>78.41796875</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>32.6796926798158</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.862599468069202</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>24858.6459960937</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>6124.8251953125</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>59.66796875</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>34.1124671651131</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.886775121479578</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>21005.8115234375</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>5810.89965820313</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>47.16796875</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>35.3492187989037</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.904872569544292</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>18143.140625</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>5713.07934570313</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>38.57421875</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>36.4198074332193</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.91852271243724</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>16449.5576171875</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>5477.77709960937</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>32.12890625</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>37.4045763953304</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.930264481007726</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>14866.7338867188</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>5425.70385742188</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>27.24609375</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>38.2812382194916</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.940296150983743</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>13751.9995117188</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>5237.82421875</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>23.53515625</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>39.0635175118568</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.948501715242218</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>12947.857421875</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>5151.95922851563</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>20.41015625</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>39.8203117506532</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.95496988375187</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>12229.0219726563</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>5045.52612304687</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>17.87109375</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>40.5058181408287</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.961140767572631</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>11702.7900390625</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>5000.07397460938</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>15.91796875</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>41.1036377925899</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.964652297401576</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>11309.876953125</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>4980.78759765625</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>14.16015625</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>41.6941071063244</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.9684093157215</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>10944.50390625</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>4911.01196289063</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>12.79296875</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>42.1976089906258</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.971877280354668</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>10735.51953125</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>4890.26098632812</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>11.62109375</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>42.6755037370391</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.974471860651047</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>10485.7934570313</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>4844.1533203125</v>
       </c>
     </row>
   </sheetData>
@@ -1154,12 +1475,12 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -1477,12 +1798,12 @@
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -1800,12 +2121,12 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -2123,12 +2444,12 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -2446,12 +2767,12 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -2769,12 +3090,12 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -3092,12 +3413,12 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -3411,16 +3732,16 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -3450,7 +3771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0.2</v>
       </c>
@@ -3472,7 +3793,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>0.25</v>
       </c>
@@ -3492,7 +3813,7 @@
         <v>1216.40948486328</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>0.3</v>
       </c>
@@ -3512,7 +3833,7 @@
         <v>1220.24609375</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>0.35</v>
       </c>
@@ -3532,7 +3853,7 @@
         <v>1227.58099365234</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>0.4</v>
       </c>
@@ -3552,7 +3873,7 @@
         <v>1228.41693115234</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>0.45</v>
       </c>
@@ -3572,7 +3893,7 @@
         <v>1228.31085205078</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>0.5</v>
       </c>
@@ -3592,7 +3913,7 @@
         <v>1230.44616699218</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>0.55</v>
       </c>
@@ -3612,7 +3933,7 @@
         <v>1228.45959472656</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>0.6</v>
       </c>
@@ -3652,7 +3973,7 @@
         <v>1229.50085449218</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>0.7</v>
       </c>
@@ -3672,7 +3993,7 @@
         <v>1227.89807128906</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>0.75</v>
       </c>
@@ -3692,7 +4013,7 @@
         <v>1230.8735961914</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>0.8</v>
       </c>

--- a/Plot_tool/xlsx/TPHLCT3_32x32.xlsx
+++ b/Plot_tool/xlsx/TPHLCT3_32x32.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <sheet name="N8RGB" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="N6RGB" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Trumpet" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Sailboat256" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="8">
   <si>
     <t xml:space="preserve">bpp</t>
   </si>
@@ -524,14 +525,14 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,13 +851,13 @@
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,13 +1170,13 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,13 +1489,13 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,17 +1804,17 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,6 +2103,325 @@
       </c>
       <c r="F14" s="1" t="n">
         <v>4862.30712890625</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="13" t="n">
+        <v>179.1015625</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>23.4488394052248</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.631730084248354</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>118065.6484375</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>11681.15625</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>147.8515625</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>24.2459173981002</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.658586083870955</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>103907.5078125</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>11406.38671875</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>125.9765625</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>25.0007715720981</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.689982271439413</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>90021.328125</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>10142.74609375</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>108.7890625</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>25.7332614274673</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.711132306059796</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>83708.3515625</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>9740.671875</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>94.7265625</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>26.4157396405359</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.738049716372422</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>81465.640625</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>9288.859375</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="13" t="n">
+        <v>84.1796875</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>27.0171077488635</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.758156795772994</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>73364.3046875</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>9972.48828125</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>75.1953125</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>27.6242292216005</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.776122042845521</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>71733.84375</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>9934.4375</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>67.7734375</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>28.1936259912525</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.792860579278032</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>67435.890625</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>9391.10546875</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="13" t="n">
+        <v>61.5234375</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>28.7007609778094</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.806932919412494</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>63917.8125</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>8591.23046875</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="13" t="n">
+        <v>56.4453125</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>29.1369945323178</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.820655716948706</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>62763.03125</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>7755.38671875</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="13" t="n">
+        <v>51.7578125</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>29.6174893673966</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.832412570041533</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>60216.1484375</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>7605.125</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>47.8515625</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>30.0629456025666</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.843949372766383</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>59549.609375</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>7232.16796875</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>44.3359375</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>30.5281386553784</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.855328052176403</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>58596.53125</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>7405.203125</v>
       </c>
     </row>
   </sheetData>
@@ -2126,13 +2446,13 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,13 +2769,13 @@
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,13 +3092,13 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3095,13 +3415,13 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,13 +3738,13 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,13 +4061,13 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4064,13 +4384,13 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,13 +4707,13 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
